--- a/Mphasis Batch.xlsx
+++ b/Mphasis Batch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DB</t>
   </si>
@@ -82,9 +82,6 @@
     <t>log troubleshooting -  server and appln log files</t>
   </si>
   <si>
-    <t>https://docs.oracle.com/database/121/TGDBA/toc.htm</t>
-  </si>
-  <si>
     <t>watch vedio</t>
   </si>
   <si>
@@ -92,6 +89,30 @@
   </si>
   <si>
     <t>https://docs.oracle.com/cd/B28359_01/server.111/b28321/strms_mprep.htm#STRMS010</t>
+  </si>
+  <si>
+    <t>sar.txt</t>
+  </si>
+  <si>
+    <t>3tier.docx</t>
+  </si>
+  <si>
+    <t>SSL.txt,jms.docx,jms1.docx</t>
+  </si>
+  <si>
+    <t>javaheap.txt</t>
+  </si>
+  <si>
+    <t>node.docx</t>
+  </si>
+  <si>
+    <t>odbcissue.txt</t>
+  </si>
+  <si>
+    <t>5.txt</t>
+  </si>
+  <si>
+    <t>3.txt,      https://docs.oracle.com/database/121/TGDBA/toc.htm</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -508,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,7 +541,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -543,7 +564,9 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -595,7 +618,9 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -615,7 +640,9 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -635,7 +662,9 @@
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -645,7 +674,9 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
@@ -655,7 +686,9 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -677,7 +710,9 @@
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -696,7 +731,7 @@
     <mergeCell ref="A17:A19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://docs.oracle.com/database/121/TGDBA/toc.htm"/>
     <hyperlink ref="D4" r:id="rId2" location="STRMS010" display="https://docs.oracle.com/cd/B28359_01/server.111/b28321/strms_mprep.htm - STRMS010"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
